--- a/Base/Teams/Eagles/Players Data.xlsx
+++ b/Base/Teams/Eagles/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>J.Hurts</t>
+  </si>
+  <si>
+    <t>G.Minshew</t>
   </si>
   <si>
     <t>M.Sanders</t>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,15 +621,35 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -648,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -671,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -697,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -723,25 +746,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,16 +772,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -775,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -801,19 +824,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -827,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -853,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -879,19 +902,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -905,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -931,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>

--- a/Base/Teams/Eagles/Players Data.xlsx
+++ b/Base/Teams/Eagles/Players Data.xlsx
@@ -481,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -581,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>17</v>
@@ -697,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -775,19 +775,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -801,22 +801,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -827,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>17</v>
@@ -853,10 +853,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -905,16 +905,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
         <v>15</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -931,10 +931,10 @@
         <v>24</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>

--- a/Base/Teams/Eagles/Players Data.xlsx
+++ b/Base/Teams/Eagles/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>43</v>
@@ -490,7 +490,7 @@
         <v>34</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -660,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -772,25 +772,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
         <v>5</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -824,25 +824,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
       <c r="F7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -850,25 +850,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -876,25 +876,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -902,25 +902,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -928,25 +928,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -954,24 +954,50 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Eagles/Players Data.xlsx
+++ b/Base/Teams/Eagles/Players Data.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Eagles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_D428E9C3E101480757723A37F5EA457761BA11BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4C59A98-C424-4661-A9A9-91C176EE18C6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +53,6 @@
   </si>
   <si>
     <t>G.Minshew</t>
-  </si>
-  <si>
-    <t>M.Sanders</t>
   </si>
   <si>
     <t>B.Scott</t>
@@ -98,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -208,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -493,7 +553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -513,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -521,90 +581,90 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>13</v>
       </c>
       <c r="F5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -613,43 +673,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -659,42 +699,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -715,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -723,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -741,15 +783,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>29</v>
@@ -767,12 +809,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -793,12 +835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>62</v>
@@ -819,12 +861,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>41</v>
@@ -845,12 +887,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -871,12 +913,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -897,12 +939,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -923,12 +965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -949,12 +991,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -975,12 +1017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>1</v>

--- a/Base/Teams/Eagles/Players Data.xlsx
+++ b/Base/Teams/Eagles/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>G.Minshew</t>
+  </si>
+  <si>
+    <t>M.Sanders</t>
   </si>
   <si>
     <t>B.Scott</t>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -518,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,15 +621,35 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -637,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -674,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -700,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -726,22 +749,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,25 +772,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -804,22 +827,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -827,25 +850,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -856,10 +879,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -868,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -882,22 +905,22 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -908,22 +931,22 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -934,21 +957,47 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
